--- a/buildDatabase/data/cure/Cure_Dataset.xlsx
+++ b/buildDatabase/data/cure/Cure_Dataset.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabra\Desktop\Dataset_sanita_benedetta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabra\Desktop\FaBE-CARE\PROJECT\buildDatabase\data\cure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7790F3-243F-4E1B-9C96-B7E0A6129F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91262841-F9AE-44A6-8778-0CBA0E74DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>C7G2L6MX2H</t>
   </si>
@@ -115,6 +126,81 @@
   </si>
   <si>
     <t>ID_PERSONALE</t>
+  </si>
+  <si>
+    <t>PATOLOGIA</t>
+  </si>
+  <si>
+    <t>PRESCRIZIONI</t>
+  </si>
+  <si>
+    <t>MMSE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Fare attenzione al contatto fisico. Il paziente risulta essere violento e ha necessità di ambienti poco luminosi, si consiglia l'utilizzo di occhiali da sole.</t>
+  </si>
+  <si>
+    <t>BRASS</t>
+  </si>
+  <si>
+    <t>Scompenso cardiaco acuto</t>
+  </si>
+  <si>
+    <t>Dispnea</t>
+  </si>
+  <si>
+    <t>Angina Pectoris</t>
+  </si>
+  <si>
+    <t>Botulismo</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Candida</t>
+  </si>
+  <si>
+    <t>Flutter atriale</t>
+  </si>
+  <si>
+    <t>Scarlattina</t>
+  </si>
+  <si>
+    <t>Gozzo</t>
+  </si>
+  <si>
+    <t>Sindrome di Kallman</t>
+  </si>
+  <si>
+    <t>Schizofrenia</t>
+  </si>
+  <si>
+    <t>Tendinite</t>
+  </si>
+  <si>
+    <t>Il soggetto presenta attacchi di fame improvvisi, garantire al,eno 6 pasti al giorno.</t>
+  </si>
+  <si>
+    <t>Il soggettopresenta accumuli d'aria nello stomaco, vengono liberati tramite emissione orale.</t>
+  </si>
+  <si>
+    <t>Peggioramento della capacità massima polonare.</t>
+  </si>
+  <si>
+    <t>Il soggetto presenta sbalzi d'umore e un costante bisogno di caffeina.</t>
+  </si>
+  <si>
+    <t>Comparsa di macchie marroni sulla cute e presenza di vertigini.</t>
+  </si>
+  <si>
+    <t>Monitoraggio continuo dei parametri vitali.</t>
+  </si>
+  <si>
+    <t>Garantire riposo.</t>
   </si>
 </sst>
 </file>
@@ -446,161 +532,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="27.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73" style="1" customWidth="1"/>
+    <col min="7" max="7" width="126.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">RANDBETWEEN(5, 30)</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">RANDBETWEEN(0,25)</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D18" ca="1" si="0">RANDBETWEEN(5, 30)</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E18" ca="1" si="1">RANDBETWEEN(0,25)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
